--- a/biology/Médecine/Paul_Cartier/Paul_Cartier.xlsx
+++ b/biology/Médecine/Paul_Cartier/Paul_Cartier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Henri Eugène Cartier (né à L'Annonciation le 11 juillet 1919 et décédé le 26 mai 2008[1] à Salaberry-de-Valleyfield, Québec) est un chirurgien vasculaire québécois. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Henri Eugène Cartier (né à L'Annonciation le 11 juillet 1919 et décédé le 26 mai 2008 à Salaberry-de-Valleyfield, Québec) est un chirurgien vasculaire québécois. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr Paul Cartier a été chirurgien vasculaire à l'Hôtel-Dieu de Montréal pendant près de 45 ans [2]. On lui attribue aussi d'avoir grandement contribué à la fondation du service de chirurgie cardiaque pédiatrique de l'Hôpital Sainte-Justine [3],[4]. Plusieurs de ses interventions chirurgicales ont été des premières au Canada de sorte qu’il est devenu un chef de file en chirurgie vasculaire tant au niveau national qu’international.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dr Paul Cartier a été chirurgien vasculaire à l'Hôtel-Dieu de Montréal pendant près de 45 ans . On lui attribue aussi d'avoir grandement contribué à la fondation du service de chirurgie cardiaque pédiatrique de l'Hôpital Sainte-Justine ,. Plusieurs de ses interventions chirurgicales ont été des premières au Canada de sorte qu’il est devenu un chef de file en chirurgie vasculaire tant au niveau national qu’international.
 Après son cours de médecine, Paul Cartier est devenu résident à l'Hôtel-Dieu avant de poursuivre sa formation en chirurgie cardiovasculaire à Saint-Louis et à Cleveland, aux États-Unis, puis à Paris et à Londres.
 À Sainte-Justine, il a procédé à la chirurgie des coarctations de l'aorte et des canaux artériels, de même qu'à la correction des malformations cardiaques. Plusieurs de ses opérations ont été des premières au Québec et au Canada.
 En chirurgie cardiaque adulte, le docteur Cartier a introduit, à l'Hôtel-Dieu, la commissurotomie mitrale fermée qu'il pratiqua plus de 600 fois.
@@ -547,7 +561,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2000 - Officier de l'Ordre national du Québec</t>
         </is>
